--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>验证CAN总线信号BCM_TurnindicatorSts与ADB_TurnlndicatorReq一致性（HIL）</t>
+          <t>验证CAN总线信号BCM_TurnindicatorSts为OFF时，ADB_TurnlndicatorReq等于BCM_TurnindicatorSts</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>系统处于正常工作状态，HIL环境已设置。</t>
+          <t>1. 系统处于正常工作状态。
+2. CAN总线上存在有效的BCM_TurnindicatorSts和ADB_TurnlndicatorReq信号。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,89 +484,129 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为OFF。</t>
+          <t>设置CAN总线信号BCM_TurnindicatorSts为OFF</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAN总线信号ADB_TurnlndicatorReq应等于OFF。</t>
+          <t>CAN总线信号ADB_TurnlndicatorReq应等于BCM_TurnindicatorSts，即也应为OFF</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>42808, 42809, 42810</t>
+          <t>42808</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>验证CAN总线信号BCM_TurnindicatorSts为Left On时，ADB_TurnlndicatorReq等于BCM_TurnindicatorSts</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1. 系统处于正常工作状态。
+2. CAN总线上存在有效的BCM_TurnindicatorSts和ADB_TurnlndicatorReq信号。</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Step 2</t>
+          <t>Step 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为Left On。</t>
+          <t>设置CAN总线信号BCM_TurnindicatorSts为Left On</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CAN总线信号ADB_TurnlndicatorReq应等于Left On。</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>CAN总线信号ADB_TurnlndicatorReq应等于BCM_TurnindicatorSts，即也应为Left On</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>42808</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>验证CAN总线信号BCM_TurnindicatorSts为Right On时，ADB_TurnlndicatorReq等于BCM_TurnindicatorSts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1. 系统处于正常工作状态。
+2. CAN总线上存在有效的BCM_TurnindicatorSts和ADB_TurnlndicatorReq信号。</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Step 3</t>
+          <t>Step 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为Right On。</t>
+          <t>设置CAN总线信号BCM_TurnindicatorSts为Right On</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAN总线信号ADB_TurnlndicatorReq应等于Right On。</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>CAN总线信号ADB_TurnlndicatorReq应等于BCM_TurnindicatorSts，即也应为Right On</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>42808</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>验证CAN总线信号BCM_TurnindicatorSts为Left and Right On时，ADB_TurnlndicatorMode设置为Flash</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1. 系统处于正常工作状态。
+2. CAN总线上存在有效的BCM_TurnindicatorSts和ADB_TurnlndicatorMode信号。</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Step 4</t>
+          <t>Step 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为Left and Right On。</t>
+          <t>设置CAN总线信号BCM_TurnindicatorSts为Left and Right On</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CAN总线信号ADB_TurnlndicatorReq应等于Left and Right On。</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>CAN总线信号ADB_TurnlndicatorMode应设置为Flash</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>42809, 42810</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>验证CAN总线信号BCM_TurnindicatorSts对应的ADB_TurnlndicatorMode设置（HIL）</t>
+          <t>验证CAN总线信号BCM_TurnindicatorSts为*OFF、Left On、RightOn时，ADB_TurnlndicatorMode设置为Flowing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>系统处于正常工作状态，HIL环境已设置。</t>
+          <t>1. 系统处于正常工作状态。
+2. CAN总线上存在有效的BCM_TurnindicatorSts和ADB_TurnlndicatorMode信号。</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,89 +616,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为OFF。</t>
+          <t>设置CAN总线信号BCM_TurnindicatorSts为*OFF、Left On、RightOn中的任一个值</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CAN总线信号ADB_TurnlndicatorMode应等于Flowing。</t>
+          <t>CAN总线信号ADB_TurnlndicatorMode应设置为Flowing</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>42808, 42809, 42810</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为Left On。</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CAN总线信号ADB_TurnlndicatorMode应等于Flowing。</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为Right On。</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CAN总线信号ADB_TurnlndicatorMode应等于Flowing。</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>验证CAN总线信号BCM_TurnindicatorSts为Left and Right On时ADB_TurnlndicatorMode设置（HIL）</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>系统处于正常工作状态，HIL环境已设置。</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>将CAN总线信号BCM_TurnindicatorSts设置为Left and Right On。</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CAN总线信号ADB_TurnlndicatorMode应等于Flash。</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>42808, 42809, 42810</t>
+          <t>42809</t>
         </is>
       </c>
     </row>
